--- a/0_1_Output_Data/5_ifo_qoq_error_series_GVA_matched_to_ifoCAST/ifo_qoq_matched_errors_first_GVA.xlsx
+++ b/0_1_Output_Data/5_ifo_qoq_error_series_GVA_matched_to_ifoCAST/ifo_qoq_matched_errors_first_GVA.xlsx
@@ -957,8 +957,11 @@
       <c r="I16">
         <v>0.4581899536236866</v>
       </c>
-    </row>
-    <row r="17" spans="1:8">
+      <c r="J16">
+        <v>0.1485032540344368</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9">
       <c r="A17" s="1" t="s">
         <v>25</v>
       </c>
@@ -983,8 +986,11 @@
       <c r="H17">
         <v>0.4993544712360053</v>
       </c>
-    </row>
-    <row r="18" spans="1:8">
+      <c r="I17">
+        <v>0.1734537503564907</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9">
       <c r="A18" s="1" t="s">
         <v>26</v>
       </c>
@@ -1006,8 +1012,11 @@
       <c r="G18">
         <v>0.5498872108380217</v>
       </c>
-    </row>
-    <row r="19" spans="1:8">
+      <c r="H18">
+        <v>0.2422520263583712</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9">
       <c r="A19" s="1" t="s">
         <v>27</v>
       </c>
@@ -1026,8 +1035,11 @@
       <c r="F19">
         <v>0.5893544712360053</v>
       </c>
-    </row>
-    <row r="20" spans="1:8">
+      <c r="G19">
+        <v>0.2534537503564908</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9">
       <c r="A20" s="1" t="s">
         <v>28</v>
       </c>
@@ -1043,8 +1055,11 @@
       <c r="E20">
         <v>0.6193544712360053</v>
       </c>
-    </row>
-    <row r="21" spans="1:8">
+      <c r="F20">
+        <v>0.381103329907261</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9">
       <c r="A21" s="1" t="s">
         <v>29</v>
       </c>
@@ -1057,8 +1072,11 @@
       <c r="D21">
         <v>0.3498282003904753</v>
       </c>
-    </row>
-    <row r="22" spans="1:8">
+      <c r="E21">
+        <v>0.04235042473292953</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9">
       <c r="A22" s="1" t="s">
         <v>30</v>
       </c>
@@ -1068,18 +1086,27 @@
       <c r="C22">
         <v>0.4001948507169847</v>
       </c>
-    </row>
-    <row r="23" spans="1:8">
+      <c r="D22">
+        <v>0.07961008106920435</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9">
       <c r="A23" s="1" t="s">
         <v>31</v>
       </c>
       <c r="B23">
         <v>0.2465333054190486</v>
       </c>
-    </row>
-    <row r="24" spans="1:8">
+      <c r="C23">
+        <v>0.02893023050567838</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9">
       <c r="A24" s="1" t="s">
         <v>32</v>
+      </c>
+      <c r="B24">
+        <v>0.02940328597706714</v>
       </c>
     </row>
   </sheetData>
